--- a/Administration/Ethics/Survey.xlsx
+++ b/Administration/Ethics/Survey.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d83c6986f351680b/Documents/dissertation-project/Administration/Ethics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\OneDrive\Documents\dissertation-project\Administration\Ethics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61FC73C6-5979-4B56-9731-5B3D35D42821}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{61FC73C6-5979-4B56-9731-5B3D35D42821}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FF5E5AB8-C10F-4870-8A16-5755173E533F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{99177323-558F-429A-A0B1-BC8353F831C1}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Strongly Agree</t>
   </si>
@@ -60,9 +60,6 @@
     <t>I felt confident using features of the application</t>
   </si>
   <si>
-    <t>I feel that other users would be interested in this application</t>
-  </si>
-  <si>
     <t>There have been times in my past where I would have found this application useful</t>
   </si>
   <si>
@@ -70,6 +67,15 @@
   </si>
   <si>
     <t>I would recommend this application to other users</t>
+  </si>
+  <si>
+    <t>I felt the system's design was inconsistent</t>
+  </si>
+  <si>
+    <t>I was happy with the outputs of the application (e.g. were the results of the application organised in a way that you expected/approved of?).</t>
+  </si>
+  <si>
+    <t>The information produced by this application is useful/valuable</t>
   </si>
 </sst>
 </file>
@@ -93,15 +99,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -109,27 +133,142 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09CFCF5C-D53B-4374-A810-A00899151F45}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,115 +601,170 @@
     <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="10">
         <v>1</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="10">
         <v>2</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="10">
         <v>3</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="9">
         <v>4</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="B4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="B6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="B8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="B9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="B11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="16" t="s">
         <v>7</v>
       </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Administration/Ethics/Survey.xlsx
+++ b/Administration/Ethics/Survey.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\OneDrive\Documents\dissertation-project\Administration\Ethics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d83c6986f351680b/Documents/dissertation-project/Administration/Ethics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{61FC73C6-5979-4B56-9731-5B3D35D42821}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FF5E5AB8-C10F-4870-8A16-5755173E533F}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{61FC73C6-5979-4B56-9731-5B3D35D42821}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{29DDB409-52AF-4B18-A322-BBD7698B5CF0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{99177323-558F-429A-A0B1-BC8353F831C1}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{99177323-558F-429A-A0B1-BC8353F831C1}"/>
   </bookViews>
   <sheets>
     <sheet name="UX" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Strongly Agree</t>
   </si>
@@ -76,13 +77,22 @@
   </si>
   <si>
     <t>The information produced by this application is useful/valuable</t>
+  </si>
+  <si>
+    <t>Participants</t>
+  </si>
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,8 +108,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,8 +168,23 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -218,18 +277,111 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -269,8 +421,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -585,186 +789,186 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09CFCF5C-D53B-4374-A810-A00899151F45}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="37.140625" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.15625" customWidth="1"/>
+    <col min="3" max="3" width="8.26171875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.26171875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="11" t="s">
+    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="12" t="s">
+      <c r="D1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="10">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10">
-        <v>2</v>
-      </c>
-      <c r="E2" s="10">
-        <v>3</v>
-      </c>
-      <c r="F2" s="9">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8">
+        <v>3</v>
+      </c>
+      <c r="F2" s="7">
         <v>4</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="13" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="14" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="15" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -774,4 +978,300 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{277E0B00-27A1-4D90-8B54-C4394E866ED8}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="9.578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="20"/>
+      <c r="B1" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="21"/>
+    </row>
+    <row r="2" spans="1:7" ht="30.3" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="23">
+        <v>1</v>
+      </c>
+      <c r="C2" s="23">
+        <v>2</v>
+      </c>
+      <c r="D2" s="23">
+        <v>3</v>
+      </c>
+      <c r="E2" s="23">
+        <v>4</v>
+      </c>
+      <c r="F2" s="23">
+        <v>5</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="22">
+        <v>1</v>
+      </c>
+      <c r="B3" s="24">
+        <v>3</v>
+      </c>
+      <c r="C3" s="24">
+        <v>3</v>
+      </c>
+      <c r="D3" s="24">
+        <v>2</v>
+      </c>
+      <c r="E3" s="24">
+        <v>3</v>
+      </c>
+      <c r="F3" s="24">
+        <v>2</v>
+      </c>
+      <c r="G3" s="32">
+        <f>SUM(B3:F3)/5</f>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="22">
+        <v>2</v>
+      </c>
+      <c r="B4" s="24">
+        <v>2</v>
+      </c>
+      <c r="C4" s="24">
+        <v>4</v>
+      </c>
+      <c r="D4" s="24">
+        <v>3</v>
+      </c>
+      <c r="E4" s="24">
+        <v>2</v>
+      </c>
+      <c r="F4" s="24">
+        <v>3</v>
+      </c>
+      <c r="G4" s="32">
+        <f t="shared" ref="G4:G12" si="0">SUM(B4:F4)/5</f>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="22">
+        <v>3</v>
+      </c>
+      <c r="B5" s="24">
+        <v>5</v>
+      </c>
+      <c r="C5" s="24">
+        <v>5</v>
+      </c>
+      <c r="D5" s="24">
+        <v>5</v>
+      </c>
+      <c r="E5" s="24">
+        <v>4</v>
+      </c>
+      <c r="F5" s="24">
+        <v>5</v>
+      </c>
+      <c r="G5" s="32">
+        <f t="shared" si="0"/>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="22">
+        <v>4</v>
+      </c>
+      <c r="B6" s="24">
+        <v>2</v>
+      </c>
+      <c r="C6" s="24">
+        <v>3</v>
+      </c>
+      <c r="D6" s="24">
+        <v>4</v>
+      </c>
+      <c r="E6" s="24">
+        <v>3</v>
+      </c>
+      <c r="F6" s="24">
+        <v>1</v>
+      </c>
+      <c r="G6" s="33">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="22">
+        <v>5</v>
+      </c>
+      <c r="B7" s="24">
+        <v>3</v>
+      </c>
+      <c r="C7" s="24">
+        <v>3</v>
+      </c>
+      <c r="D7" s="24">
+        <v>4</v>
+      </c>
+      <c r="E7" s="24">
+        <v>3</v>
+      </c>
+      <c r="F7" s="24">
+        <v>2</v>
+      </c>
+      <c r="G7" s="34">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A8" s="22">
+        <v>6</v>
+      </c>
+      <c r="B8" s="24">
+        <v>1</v>
+      </c>
+      <c r="C8" s="24">
+        <v>2</v>
+      </c>
+      <c r="D8" s="24">
+        <v>1</v>
+      </c>
+      <c r="E8" s="24">
+        <v>1</v>
+      </c>
+      <c r="F8" s="24">
+        <v>3</v>
+      </c>
+      <c r="G8" s="32">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="22">
+        <v>7</v>
+      </c>
+      <c r="B9" s="24">
+        <v>2</v>
+      </c>
+      <c r="C9" s="24">
+        <v>2</v>
+      </c>
+      <c r="D9" s="24">
+        <v>1</v>
+      </c>
+      <c r="E9" s="24">
+        <v>2</v>
+      </c>
+      <c r="F9" s="24">
+        <v>1</v>
+      </c>
+      <c r="G9" s="32">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="22">
+        <v>8</v>
+      </c>
+      <c r="B10" s="24">
+        <v>2</v>
+      </c>
+      <c r="C10" s="24">
+        <v>3</v>
+      </c>
+      <c r="D10" s="24">
+        <v>4</v>
+      </c>
+      <c r="E10" s="24">
+        <v>2</v>
+      </c>
+      <c r="F10" s="24">
+        <v>3</v>
+      </c>
+      <c r="G10" s="32">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A11" s="28">
+        <v>9</v>
+      </c>
+      <c r="B11" s="29">
+        <v>1</v>
+      </c>
+      <c r="C11" s="20">
+        <v>1</v>
+      </c>
+      <c r="D11" s="29">
+        <v>2</v>
+      </c>
+      <c r="E11" s="29">
+        <v>1</v>
+      </c>
+      <c r="F11" s="29">
+        <v>3</v>
+      </c>
+      <c r="G11" s="32">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.3" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A12" s="31">
+        <v>10</v>
+      </c>
+      <c r="B12" s="30">
+        <v>2</v>
+      </c>
+      <c r="C12" s="30">
+        <v>2</v>
+      </c>
+      <c r="D12" s="30">
+        <v>1</v>
+      </c>
+      <c r="E12" s="30">
+        <v>3</v>
+      </c>
+      <c r="F12" s="30">
+        <v>2</v>
+      </c>
+      <c r="G12" s="32">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>